--- a/data/trans_orig/CONS_ANTIDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en País Vasco</t>
+          <t>Consumo de antidepresivos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Andalucia</t>
+          <t>Consumo de antidepresivos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en C.Valenciana</t>
+          <t>Consumo de antidepresivos en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Barcelona</t>
+          <t>Consumo de antidepresivos en Barcelona (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ANTIDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6840</t>
+          <t>5031</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10282</t>
+          <t>9193</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7632</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13179</t>
+          <t>11728</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14773</t>
+          <t>12568</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11618</t>
+          <t>10295</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>18710</t>
+          <t>15747</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83573</t>
+          <t>79167</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81224</t>
+          <t>77511</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85300</t>
+          <t>80406</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>117462</t>
+          <t>112259</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>114565</t>
+          <t>109724</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>120112</t>
+          <t>114487</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>201036</t>
+          <t>191426</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>197099</t>
+          <t>188247</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>204191</t>
+          <t>193699</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>94,95%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8571</t>
+          <t>9894</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>7395</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11576</t>
+          <t>13233</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15373</t>
+          <t>15442</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12315</t>
+          <t>12380</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19180</t>
+          <t>19143</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>23944</t>
+          <t>25336</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>20423</t>
+          <t>21079</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28346</t>
+          <t>29877</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>444920</t>
+          <t>451785</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>441915</t>
+          <t>448446</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>447155</t>
+          <t>454284</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>416429</t>
+          <t>428915</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>412622</t>
+          <t>425214</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>419487</t>
+          <t>431977</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>861349</t>
+          <t>880699</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>856947</t>
+          <t>876158</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>864870</t>
+          <t>884956</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>97,67%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>604</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4767</t>
+          <t>5422</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6903</t>
+          <t>7625</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5896</t>
+          <t>6802</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3982</t>
+          <t>4870</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8211</t>
+          <t>9418</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>150496</t>
+          <t>174182</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>149245</t>
+          <t>172742</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>151095</t>
+          <t>174957</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>189470</t>
+          <t>222572</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>187334</t>
+          <t>220369</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>191107</t>
+          <t>224485</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>339967</t>
+          <t>396753</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>337652</t>
+          <t>394137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>341881</t>
+          <t>398685</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>98,79%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14191</t>
+          <t>14649</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11107</t>
+          <t>11475</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17746</t>
+          <t>18263</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30421</t>
+          <t>30057</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25971</t>
+          <t>25799</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35277</t>
+          <t>35158</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>44613</t>
+          <t>44706</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>39056</t>
+          <t>38973</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>51541</t>
+          <t>50642</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,35%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>678990</t>
+          <t>705132</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>675435</t>
+          <t>701518</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>682074</t>
+          <t>708306</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>723363</t>
+          <t>763746</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>718507</t>
+          <t>758645</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>727813</t>
+          <t>768004</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1402352</t>
+          <t>1468878</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1395424</t>
+          <t>1462942</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1407909</t>
+          <t>1474611</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,43%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10297</t>
+          <t>10445</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24486</t>
+          <t>24374</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>45018</t>
+          <t>44591</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>64335</t>
+          <t>64762</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>59415</t>
+          <t>57354</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>82850</t>
+          <t>82432</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>13,24%</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>203321</t>
+          <t>203433</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>217510</t>
+          <t>217362</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,25%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>330425</t>
+          <t>329998</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>349742</t>
+          <t>350169</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>83,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>88,7%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>539717</t>
+          <t>540135</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>563152</t>
+          <t>565213</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>90,79%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18951</t>
+          <t>20086</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50744</t>
+          <t>53369</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61631</t>
+          <t>57239</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>122657</t>
+          <t>122236</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>90902</t>
+          <t>94562</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>163944</t>
+          <t>162424</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1358649</t>
+          <t>1356024</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1390442</t>
+          <t>1389307</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1263154</t>
+          <t>1263575</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1324180</t>
+          <t>1328572</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2631260</t>
+          <t>2632780</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2704302</t>
+          <t>2700642</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>96,62%</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5831</t>
+          <t>5602</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19674</t>
+          <t>19488</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9088</t>
+          <t>9310</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22333</t>
+          <t>22870</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>17510</t>
+          <t>18078</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>38584</t>
+          <t>38110</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>440127</t>
+          <t>440313</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>453970</t>
+          <t>454199</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>421041</t>
+          <t>420504</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>434286</t>
+          <t>434064</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>864591</t>
+          <t>865065</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>885665</t>
+          <t>885097</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>98,0%</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42214</t>
+          <t>42956</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82865</t>
+          <t>83616</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>120288</t>
+          <t>119938</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>193265</t>
+          <t>192574</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>179527</t>
+          <t>179341</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>261142</t>
+          <t>262107</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2014136</t>
+          <t>2013385</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2054787</t>
+          <t>2054045</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2030680</t>
+          <t>2031371</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2103657</t>
+          <t>2104007</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4059804</t>
+          <t>4058839</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4141419</t>
+          <t>4141605</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12254</t>
+          <t>13348</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23629</t>
+          <t>24004</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43608</t>
+          <t>43353</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>37,2%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5644,12 +5644,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>27011</t>
+          <t>27449</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>51709</t>
+          <t>51694</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84861</t>
+          <t>83767</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94822</t>
+          <t>94633</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>86,26%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73616</t>
+          <t>73871</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>93595</t>
+          <t>93220</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,84%</t>
+          <t>79,52%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>162630</t>
+          <t>162645</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>187328</t>
+          <t>186890</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>87,19%</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18401</t>
+          <t>18777</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32183</t>
+          <t>32500</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5932,12 +5932,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36610</t>
+          <t>36743</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52955</t>
+          <t>53644</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>57921</t>
+          <t>58671</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>81617</t>
+          <t>81337</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>324705</t>
+          <t>324388</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>338487</t>
+          <t>338111</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>301323</t>
+          <t>300634</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>317668</t>
+          <t>317535</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>629549</t>
+          <t>629829</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>653245</t>
+          <t>652495</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>91,75%</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6413</t>
+          <t>6260</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15003</t>
+          <t>14262</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16629</t>
+          <t>17278</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28666</t>
+          <t>28848</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>25698</t>
+          <t>25965</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39534</t>
+          <t>39356</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -6373,12 +6373,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>209500</t>
+          <t>210241</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>218090</t>
+          <t>218243</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>253525</t>
+          <t>253343</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>265562</t>
+          <t>264913</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>467161</t>
+          <t>467339</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>480997</t>
+          <t>480730</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>94,88%</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31997</t>
+          <t>32055</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50895</t>
+          <t>50634</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>84665</t>
+          <t>85145</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>114955</t>
+          <t>116845</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>122876</t>
+          <t>123450</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>158485</t>
+          <t>158026</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>627612</t>
+          <t>627873</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>646510</t>
+          <t>646452</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>638738</t>
+          <t>636848</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>669028</t>
+          <t>668548</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>88,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1273715</t>
+          <t>1274174</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1309324</t>
+          <t>1308750</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,93%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>91,38%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ANTIDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de antidepresivos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3375</t>
+          <t>17331</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>11247</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5031</t>
+          <t>25791</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9193</t>
+          <t>59879</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>49261</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>71978</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>120</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>12568</t>
+          <t>77210</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10295</t>
+          <t>62955</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>15747</t>
+          <t>90227</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79167</t>
+          <t>237566</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77511</t>
+          <t>229106</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80406</t>
+          <t>243650</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>595</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>112259</t>
+          <t>372387</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>109724</t>
+          <t>360288</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>114487</t>
+          <t>383005</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,34%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>863</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>191426</t>
+          <t>609953</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>188247</t>
+          <t>596936</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>193699</t>
+          <t>624208</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>90,84%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>983</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9894</t>
+          <t>41762</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7395</t>
+          <t>30749</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13233</t>
+          <t>58127</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15442</t>
+          <t>102062</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12380</t>
+          <t>86904</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19143</t>
+          <t>121595</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>187</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>25336</t>
+          <t>143824</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>21079</t>
+          <t>124435</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>29877</t>
+          <t>167935</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>6,56%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>451785</t>
+          <t>1245925</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>448446</t>
+          <t>1229560</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>454284</t>
+          <t>1256938</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>428915</t>
+          <t>1168679</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>425214</t>
+          <t>1149146</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>431977</t>
+          <t>1183837</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>2563</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>880699</t>
+          <t>2414604</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>876158</t>
+          <t>2390493</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>884956</t>
+          <t>2433993</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>95,14%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>11812</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>5781</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>20839</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5422</t>
+          <t>17261</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>11201</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7625</t>
+          <t>26321</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6802</t>
+          <t>29072</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4870</t>
+          <t>20638</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9418</t>
+          <t>42696</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>4,25%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>174182</t>
+          <t>498067</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172742</t>
+          <t>489040</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174957</t>
+          <t>504098</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>643</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>222572</t>
+          <t>478645</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>220369</t>
+          <t>469585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>224485</t>
+          <t>484705</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2068</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>396753</t>
+          <t>976714</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>394137</t>
+          <t>963090</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>398685</t>
+          <t>985148</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>97,95%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14649</t>
+          <t>70904</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11475</t>
+          <t>55778</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18263</t>
+          <t>89568</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>268</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30057</t>
+          <t>179202</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25799</t>
+          <t>160128</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35158</t>
+          <t>203289</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>341</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>44706</t>
+          <t>250106</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>38973</t>
+          <t>224734</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>50642</t>
+          <t>277701</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3974</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>705132</t>
+          <t>1981560</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>701518</t>
+          <t>1962896</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>708306</t>
+          <t>1996686</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>763746</t>
+          <t>2019711</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>758645</t>
+          <t>1995624</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>768004</t>
+          <t>2038785</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8246</t>
+          <t>4545</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1468878</t>
+          <t>4001270</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1462942</t>
+          <t>3973675</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1474611</t>
+          <t>4026642</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>94,71%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2999</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de antidepresivos en Barcelona (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2342,107 +2342,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16347</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10445</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24374</t>
+          <t>13348</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54221</t>
+          <t>32855</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44591</t>
+          <t>24004</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>64762</t>
+          <t>43353</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>70569</t>
+          <t>38382</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>57354</t>
+          <t>27449</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>82432</t>
+          <t>51694</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>24,12%</t>
         </is>
       </c>
     </row>
@@ -2455,107 +2455,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>211460</t>
+          <t>91588</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>203433</t>
+          <t>83767</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>217362</t>
+          <t>94633</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>86,26%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>233</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>340539</t>
+          <t>84369</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>329998</t>
+          <t>73871</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>350169</t>
+          <t>93220</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>71,97%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,59%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>79,52%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>413</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>551998</t>
+          <t>175957</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>540135</t>
+          <t>162645</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>565213</t>
+          <t>186890</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>82,09%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>87,19%</t>
         </is>
       </c>
     </row>
@@ -2568,22 +2568,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>97115</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>97115</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>97115</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2603,22 +2603,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>291</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>117224</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>117224</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>117224</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>485</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>214339</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>214339</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>214339</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2685,107 +2685,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36567</t>
+          <t>24856</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20086</t>
+          <t>18777</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53369</t>
+          <t>32500</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94617</t>
+          <t>44398</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57239</t>
+          <t>36743</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>122236</t>
+          <t>53644</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>155</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>131184</t>
+          <t>69255</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>94562</t>
+          <t>58671</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>162424</t>
+          <t>81337</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -2798,107 +2798,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>740</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1372826</t>
+          <t>332032</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1356024</t>
+          <t>324388</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1389307</t>
+          <t>338111</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>708</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1291194</t>
+          <t>309880</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1263575</t>
+          <t>300634</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1328572</t>
+          <t>317535</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2664020</t>
+          <t>641911</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2632780</t>
+          <t>629829</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2700642</t>
+          <t>652495</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>91,75%</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>808</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354278</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354278</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354278</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2981,22 +2981,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>711166</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>711166</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>711166</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3028,107 +3028,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11449</t>
+          <t>9767</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5602</t>
+          <t>6260</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19488</t>
+          <t>14262</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14478</t>
+          <t>22271</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9310</t>
+          <t>17278</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22870</t>
+          <t>28848</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>25927</t>
+          <t>32039</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>18078</t>
+          <t>25965</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>38110</t>
+          <t>39356</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -3141,107 +3141,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>613</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>448352</t>
+          <t>214736</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>440313</t>
+          <t>210241</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>454199</t>
+          <t>218243</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>696</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>428896</t>
+          <t>259920</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>420504</t>
+          <t>253343</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>434064</t>
+          <t>264913</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>877248</t>
+          <t>474656</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>865065</t>
+          <t>467339</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>885097</t>
+          <t>480730</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>94,88%</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>642</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224503</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224503</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224503</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>760</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282191</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282191</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282191</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>506695</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>506695</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>506695</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3371,107 +3371,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64363</t>
+          <t>40150</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42956</t>
+          <t>32055</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83616</t>
+          <t>50634</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>222</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>163316</t>
+          <t>99525</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>119938</t>
+          <t>85145</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>192574</t>
+          <t>116845</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>320</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>227680</t>
+          <t>139675</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>179341</t>
+          <t>123450</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>262107</t>
+          <t>158026</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -3484,107 +3484,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1533</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2032638</t>
+          <t>638357</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2013385</t>
+          <t>627873</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2054045</t>
+          <t>646452</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>1637</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2060629</t>
+          <t>654168</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2031371</t>
+          <t>636848</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2104007</t>
+          <t>668548</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>88,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4093266</t>
+          <t>1292525</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4058839</t>
+          <t>1274174</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4141605</t>
+          <t>1308750</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>91,38%</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>678507</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>678507</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>678507</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>753693</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>753693</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>753693</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3667,22 +3667,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>1432200</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>1432200</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>1432200</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Barcelona (tasa de respuesta: 99,66%)</t>
+          <t>Consumo de antidepresivos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5564,107 +5564,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13348</t>
+          <t>5031</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32855</t>
+          <t>9193</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24004</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43353</t>
+          <t>11728</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>38382</t>
+          <t>12568</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>27449</t>
+          <t>10295</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>51694</t>
+          <t>15747</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -5677,107 +5677,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>480</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91588</t>
+          <t>79167</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83767</t>
+          <t>77511</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94633</t>
+          <t>80406</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84369</t>
+          <t>112259</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73871</t>
+          <t>109724</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>93220</t>
+          <t>114487</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,97%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>63,02%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,52%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>175957</t>
+          <t>191426</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>162645</t>
+          <t>188247</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>186890</t>
+          <t>193699</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>82,09%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>94,95%</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97115</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97115</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97115</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>117224</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>117224</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>117224</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>214339</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>214339</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>214339</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5907,107 +5907,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24856</t>
+          <t>9894</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18777</t>
+          <t>7395</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32500</t>
+          <t>13233</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44398</t>
+          <t>15442</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36743</t>
+          <t>12380</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>53644</t>
+          <t>19143</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>147</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>69255</t>
+          <t>25336</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>58671</t>
+          <t>21079</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>81337</t>
+          <t>29877</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -6020,107 +6020,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>2595</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>332032</t>
+          <t>451785</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>324388</t>
+          <t>448446</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>338111</t>
+          <t>454284</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>309880</t>
+          <t>428915</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>300634</t>
+          <t>425214</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>317535</t>
+          <t>431977</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,47%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>5003</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>641911</t>
+          <t>880699</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>629829</t>
+          <t>876158</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>652495</t>
+          <t>884956</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>97,67%</t>
         </is>
       </c>
     </row>
@@ -6133,22 +6133,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6168,22 +6168,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>354278</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>354278</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>354278</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6203,22 +6203,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>711166</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>711166</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>711166</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6250,107 +6250,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9767</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6260</t>
+          <t>604</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14262</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22271</t>
+          <t>5422</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17278</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28848</t>
+          <t>7625</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>32039</t>
+          <t>6802</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>25965</t>
+          <t>4870</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39356</t>
+          <t>9418</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -6363,107 +6363,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>899</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>214736</t>
+          <t>174182</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>210241</t>
+          <t>172742</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>218243</t>
+          <t>174957</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>259920</t>
+          <t>222572</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>253343</t>
+          <t>220369</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>264913</t>
+          <t>224485</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>474656</t>
+          <t>396753</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>467339</t>
+          <t>394137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>480730</t>
+          <t>398685</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>98,79%</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>224503</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>224503</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>224503</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6511,22 +6511,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>282191</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>282191</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>282191</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6546,22 +6546,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>506695</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>506695</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>506695</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6593,107 +6593,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40150</t>
+          <t>14649</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32055</t>
+          <t>11475</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50634</t>
+          <t>18263</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>99525</t>
+          <t>30057</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>85145</t>
+          <t>25799</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>116845</t>
+          <t>35158</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>268</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>139675</t>
+          <t>44706</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>123450</t>
+          <t>38973</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>158026</t>
+          <t>50642</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>3,35%</t>
         </is>
       </c>
     </row>
@@ -6706,107 +6706,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>638357</t>
+          <t>705132</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>627873</t>
+          <t>701518</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>646452</t>
+          <t>708306</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1637</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>654168</t>
+          <t>763746</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>636848</t>
+          <t>758645</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>668548</t>
+          <t>768004</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>8246</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1292525</t>
+          <t>1468878</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1274174</t>
+          <t>1462942</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1308750</t>
+          <t>1474611</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>97,43%</t>
         </is>
       </c>
     </row>
@@ -6819,22 +6819,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>678507</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>678507</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>678507</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753693</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753693</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753693</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6889,22 +6889,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1432200</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1432200</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1432200</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
